--- a/P1_withpage01.xlsx
+++ b/P1_withpage01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/631b13f70ca433d9/文件/GitHub/asd-web-extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4A9814-E2E4-49F1-986E-DC4CD91B189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3C4A9814-E2E4-49F1-986E-DC4CD91B189F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{276081D8-EB75-484E-AAA2-80C62D8F33E8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7801" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8577" uniqueCount="1453">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -2813,6 +2813,1755 @@
   </si>
   <si>
     <t>https://www.myschool.edu.au/school/45258/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043173-1</t>
+  </si>
+  <si>
+    <t>https://stephonwong.github.io/asd-web-extract/ntmp_01.html</t>
+  </si>
+  <si>
+    <t>Roxburgh Rise Primary School|45257|VIC|3064</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45257/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043176-2</t>
+  </si>
+  <si>
+    <t>Caulfield Primary School|45255|VIC|3162</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45255/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043181-3</t>
+  </si>
+  <si>
+    <t>Benton Junior College|45254|VIC|3931</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45254/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043187-4</t>
+  </si>
+  <si>
+    <t>Carranballac P-9 College|45252|VIC|3030</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45252/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043193-5</t>
+  </si>
+  <si>
+    <t>Roxburgh Park Primary School|45251|VIC|3064</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45251/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043199-6</t>
+  </si>
+  <si>
+    <t>Springside Primary School|45250|VIC|3023</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45250/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043203-7</t>
+  </si>
+  <si>
+    <t>Creekside K-9 College|45249|VIC|3023</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45249/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043209-8</t>
+  </si>
+  <si>
+    <t>Brookside P-9 College|45248|VIC|3023</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45248/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043213-9</t>
+  </si>
+  <si>
+    <t>Hillsmeade Primary School|45247|VIC|3805</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45247/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043221-10</t>
+  </si>
+  <si>
+    <t>Parkwood Green Primary School|45246|VIC|3037</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45246/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043228-11</t>
+  </si>
+  <si>
+    <t>Timbarra P-9 College|45245|VIC|3806</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45245/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043234-12</t>
+  </si>
+  <si>
+    <t>Great Ryrie Primary School|45244|VIC|3135</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45244/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043239-13</t>
+  </si>
+  <si>
+    <t>Strathaird Primary School|45242|VIC|3805</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45242/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043244-14</t>
+  </si>
+  <si>
+    <t>Nyah District Primary School|45241|VIC|3595</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45241/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043249-15</t>
+  </si>
+  <si>
+    <t>Doncaster Gardens Primary School|45240|VIC|3109</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45240/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043253-16</t>
+  </si>
+  <si>
+    <t>Belle Vue Park Primary School|45239|VIC|3046</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45239/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043257-17</t>
+  </si>
+  <si>
+    <t>Dinjerra Primary School|45238|VIC|3019</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45238/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043262-18</t>
+  </si>
+  <si>
+    <t>Newcomb Primary School|45237|VIC|3219</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45237/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043267-19</t>
+  </si>
+  <si>
+    <t>Roxburgh Homestead Primary School|45236|VIC|3064</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45236/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043271-20</t>
+  </si>
+  <si>
+    <t>Gormandale And District Primary School|45235|VIC|3873</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45235/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043276-21</t>
+  </si>
+  <si>
+    <t>Millwarra Primary School|45233|VIC|3799</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45233/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043281-22</t>
+  </si>
+  <si>
+    <t>Woady Yaloak Primary School|45229|VIC|3351</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45229/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043285-23</t>
+  </si>
+  <si>
+    <t>Woorinen District Primary School|45228|VIC|3588</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45228/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043290-24</t>
+  </si>
+  <si>
+    <t>Streeton Primary School|45227|VIC|3085</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45227/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043295-25</t>
+  </si>
+  <si>
+    <t>Glen Waverley South Primary School|45226|VIC|3150</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45226/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043300-26</t>
+  </si>
+  <si>
+    <t>Carwatha College P-12|45225|VIC|3174</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45225/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043305-27</t>
+  </si>
+  <si>
+    <t>Hawkesdale P12 College|45224|VIC|3287</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45224/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043309-28</t>
+  </si>
+  <si>
+    <t>Murrayville Community College|45223|VIC|3512</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45223/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043313-29</t>
+  </si>
+  <si>
+    <t>Edenhope College|45222|VIC|3318</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45222/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043317-30</t>
+  </si>
+  <si>
+    <t>Rangeview Primary School|45221|VIC|3132</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45221/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043321-31</t>
+  </si>
+  <si>
+    <t>Mount Waverley North Primary School|45220|VIC|3149</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45220/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043325-32</t>
+  </si>
+  <si>
+    <t>Knox Central Primary School|45219|VIC|3155</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45219/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043329-33</t>
+  </si>
+  <si>
+    <t>Amsleigh Park Primary School|45218|VIC|3166</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45218/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043334-34</t>
+  </si>
+  <si>
+    <t>Albany Rise Primary School|45217|VIC|3170</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45217/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043339-35</t>
+  </si>
+  <si>
+    <t>Carrington Primary School|45216|VIC|3180</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45216/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043342-36</t>
+  </si>
+  <si>
+    <t>Glen Waverley Primary School|45215|VIC|3150</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45215/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043346-37</t>
+  </si>
+  <si>
+    <t>Powlett River Primary School|45214|VIC|3992</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45214/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043350-38</t>
+  </si>
+  <si>
+    <t>Le Page Primary School|45213|VIC|3192</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45213/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043354-39</t>
+  </si>
+  <si>
+    <t>Bayles Regional Primary School|45212|VIC|3981</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45212/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043358-40</t>
+  </si>
+  <si>
+    <t>Meeniyan Primary School|45211|VIC|3956</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45211/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043362-41</t>
+  </si>
+  <si>
+    <t>Roberts McCubbin Primary School|45210|VIC|3128</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45210/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043367-42</t>
+  </si>
+  <si>
+    <t>Kananook Primary School|45209|VIC|3198</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45209/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043371-43</t>
+  </si>
+  <si>
+    <t>Parkhill Primary School|45208|VIC|3147</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45208/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043375-44</t>
+  </si>
+  <si>
+    <t>Toolern Vale and District Primary School|45207|VIC|3337</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45207/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043378-45</t>
+  </si>
+  <si>
+    <t>Niddrie Primary School|45206|VIC|3042</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45206/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043385-46</t>
+  </si>
+  <si>
+    <t>Harcourt Valley Primary School|45204|VIC|3453</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45204/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043389-47</t>
+  </si>
+  <si>
+    <t>Tyrrell College|45203|VIC|3533</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45203/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043398-48</t>
+  </si>
+  <si>
+    <t>Whitfield District Primary School|45198|VIC|3733</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45198/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043403-49</t>
+  </si>
+  <si>
+    <t>Welshpool and District Primary School|45197|VIC|3966</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45197/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043407-50</t>
+  </si>
+  <si>
+    <t>Nambrok Denison Primary School|45196|VIC|3847</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45196/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043412-51</t>
+  </si>
+  <si>
+    <t>Lardner and District Primary School|45194|VIC|3821</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45194/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043419-52</t>
+  </si>
+  <si>
+    <t>Bundalaguah Primary School|45193|VIC|3851</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45193/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043429-53</t>
+  </si>
+  <si>
+    <t>Caledonian Primary School|45190|VIC|3350</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45190/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043433-54</t>
+  </si>
+  <si>
+    <t>Canadian Lead Primary School|45189|VIC|3350</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45189/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043438-55</t>
+  </si>
+  <si>
+    <t>Narrawong District Primary School|45188|VIC|3285</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45188/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043442-56</t>
+  </si>
+  <si>
+    <t>Grasmere Primary School|45187|VIC|3281</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45187/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043446-57</t>
+  </si>
+  <si>
+    <t>Mount Duneed Regional Primary School|45186|VIC|3217</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45186/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043453-58</t>
+  </si>
+  <si>
+    <t>Mortlake P-12 College|45184|VIC|3272</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45184/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043457-59</t>
+  </si>
+  <si>
+    <t>Derrinallum P-12 College|45183|VIC|3325</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45183/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043461-60</t>
+  </si>
+  <si>
+    <t>Somerville Rise Primary School|45182|VIC|3912</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45182/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043465-61</t>
+  </si>
+  <si>
+    <t>Courtenay Gardens Primary School|45181|VIC|3977</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45181/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043469-62</t>
+  </si>
+  <si>
+    <t>Pakenham Hills Primary School|45180|VIC|3810</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45180/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043473-63</t>
+  </si>
+  <si>
+    <t>Pentland Primary School|45179|VIC|3340</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45179/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043477-64</t>
+  </si>
+  <si>
+    <t>Peranbin Primary College|45174|VIC|3669</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45174/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043481-65</t>
+  </si>
+  <si>
+    <t>Westgrove Primary School|45173|VIC|3030</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45173/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043485-66</t>
+  </si>
+  <si>
+    <t>Oatlands Primary School|45172|VIC|3805</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45172/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043489-67</t>
+  </si>
+  <si>
+    <t>Surfside Primary School|45171|VIC|3226</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45171/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043493-68</t>
+  </si>
+  <si>
+    <t>Killara Primary School|45170|VIC|3429</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45170/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043497-69</t>
+  </si>
+  <si>
+    <t>Kilberry Valley Primary School|45169|VIC|3976</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45169/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043500-70</t>
+  </si>
+  <si>
+    <t>Ranfurly Primary School|45168|VIC|3502</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45168/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043502-71</t>
+  </si>
+  <si>
+    <t>Heany Park Primary School|45167|VIC|3178</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45167/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043505-72</t>
+  </si>
+  <si>
+    <t>Thomas Chirnside Primary School|45166|VIC|3030</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45166/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043507-73</t>
+  </si>
+  <si>
+    <t>Willmott Park Primary School|45165|VIC|3064</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45165/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043510-74</t>
+  </si>
+  <si>
+    <t>Seabrook Primary School|45164|VIC|3028</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45164/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043512-75</t>
+  </si>
+  <si>
+    <t>Monmia Primary School|45163|VIC|3038</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45163/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043515-76</t>
+  </si>
+  <si>
+    <t>Mill Park Heights Primary School|45162|VIC|3082</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45162/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043518-77</t>
+  </si>
+  <si>
+    <t>Woodlands Primary School|45161|VIC|3910</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45161/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043521-78</t>
+  </si>
+  <si>
+    <t>Baden Powell P-9 College|45159|VIC|3029</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45159/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043524-79</t>
+  </si>
+  <si>
+    <t>Rowellyn Park Primary School|45158|VIC|3201</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45158/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043526-80</t>
+  </si>
+  <si>
+    <t>Cambridge Primary School|45157|VIC|3029</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45157/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043529-81</t>
+  </si>
+  <si>
+    <t>Brentwood Park Primary School|45155|VIC|3806</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45155/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043531-82</t>
+  </si>
+  <si>
+    <t>Berwick Fields Primary School|45154|VIC|3806</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45154/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043534-83</t>
+  </si>
+  <si>
+    <t>Aspendale Gardens Primary School|45153|VIC|3195</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45153/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043536-84</t>
+  </si>
+  <si>
+    <t>Mackellar Primary School|45150|VIC|3037</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45150/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043539-85</t>
+  </si>
+  <si>
+    <t>Karoo Primary School|45149|VIC|3178</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45149/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043542-86</t>
+  </si>
+  <si>
+    <t>Thomas Mitchell Primary School|45148|VIC|3802</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45148/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043544-87</t>
+  </si>
+  <si>
+    <t>Maramba Primary School|45147|VIC|3805</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45147/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043547-88</t>
+  </si>
+  <si>
+    <t>Coral Park Primary School|45146|VIC|3976</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45146/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043549-89</t>
+  </si>
+  <si>
+    <t>Boroondara Park Primary School|45142|VIC|3104</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45142/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043552-90</t>
+  </si>
+  <si>
+    <t>Altona Green Primary School|45141|VIC|3028</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45141/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043554-91</t>
+  </si>
+  <si>
+    <t>Meadowglen Primary School|45140|VIC|3076</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45140/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043556-92</t>
+  </si>
+  <si>
+    <t>Orchard Grove Primary School|45139|VIC|3130</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45139/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043559-93</t>
+  </si>
+  <si>
+    <t>Park Ridge Primary School|45134|VIC|3178</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45134/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043561-94</t>
+  </si>
+  <si>
+    <t>Clifton Springs Primary School|45133|VIC|3222</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45133/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043564-95</t>
+  </si>
+  <si>
+    <t>Yarra Primary School|45127|VIC|3121</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45127/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043566-96</t>
+  </si>
+  <si>
+    <t>Richmond Primary School|45126|VIC|3121</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45126/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043569-97</t>
+  </si>
+  <si>
+    <t>Glen Katherine Primary School|45121|VIC|3095</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45121/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043572-98</t>
+  </si>
+  <si>
+    <t>Taylors Lakes Primary School|45120|VIC|3038</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45120/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043574-99</t>
+  </si>
+  <si>
+    <t>Langwarrin Park Primary School|45119|VIC|3910</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45119/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043577-100</t>
+  </si>
+  <si>
+    <t>Kurunjang Primary School|45118|VIC|3337</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45118/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043579-101</t>
+  </si>
+  <si>
+    <t>Croydon Hills Primary School|45117|VIC|3136</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45117/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043582-102</t>
+  </si>
+  <si>
+    <t>Bellbridge Primary School|45116|VIC|3029</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45116/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043584-103</t>
+  </si>
+  <si>
+    <t>Goonawarra Primary School|45113|VIC|3429</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45113/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043586-104</t>
+  </si>
+  <si>
+    <t>Findon Primary School|45109|VIC|3082</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45109/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043589-105</t>
+  </si>
+  <si>
+    <t>Craigieburn South Primary School|45108|VIC|3064</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45108/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043591-106</t>
+  </si>
+  <si>
+    <t>Rolling Hills Primary School|45107|VIC|3138</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45107/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043594-107</t>
+  </si>
+  <si>
+    <t>Kings Park Primary School|45103|VIC|3021</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45103/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043596-108</t>
+  </si>
+  <si>
+    <t>Southern Cross Primary School|45102|VIC|3802</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45102/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043599-109</t>
+  </si>
+  <si>
+    <t>Knox Gardens Primary School|45101|VIC|3152</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45101/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043601-110</t>
+  </si>
+  <si>
+    <t>Rangebank Primary School|45100|VIC|3977</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45100/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043604-111</t>
+  </si>
+  <si>
+    <t>Chalcot Lodge Primary School|45099|VIC|3802</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45099/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043607-112</t>
+  </si>
+  <si>
+    <t>Bundarra Primary School|45097|VIC|3305</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45097/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043609-113</t>
+  </si>
+  <si>
+    <t>Meadow Heights Primary School|45096|VIC|3048</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45096/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043611-114</t>
+  </si>
+  <si>
+    <t>Berwick Lodge Primary School|45088|VIC|3806</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45088/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043614-115</t>
+  </si>
+  <si>
+    <t>Milgate Primary School|45087|VIC|3109</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45087/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043616-116</t>
+  </si>
+  <si>
+    <t>Appin Park Primary School|45085|VIC|3676</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45085/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043620-117</t>
+  </si>
+  <si>
+    <t>Wedge Park Primary School|45084|VIC|3337</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45084/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043622-118</t>
+  </si>
+  <si>
+    <t>Mossgiel Park Primary School|45083|VIC|3802</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45083/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043625-119</t>
+  </si>
+  <si>
+    <t>Wallaroo Primary School|45082|VIC|3915</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45082/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043627-120</t>
+  </si>
+  <si>
+    <t>Delacombe Primary School|45081|VIC|3356</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45081/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043630-121</t>
+  </si>
+  <si>
+    <t>Darley Primary School|45080|VIC|3340</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45080/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043633-122</t>
+  </si>
+  <si>
+    <t>Sunbury Heights Primary School|45079|VIC|3429</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45079/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043636-123</t>
+  </si>
+  <si>
+    <t>Templeton Primary School|45078|VIC|3152</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45078/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043638-124</t>
+  </si>
+  <si>
+    <t>Bass Valley Primary School|45077|VIC|3984</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45077/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043641-125</t>
+  </si>
+  <si>
+    <t>Chirnside Park Primary School|45076|VIC|3116</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45076/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043643-126</t>
+  </si>
+  <si>
+    <t>Billanook Primary School|45075|VIC|3765</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45075/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043646-127</t>
+  </si>
+  <si>
+    <t>Seaford Park Primary School|45074|VIC|3198</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45074/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043648-128</t>
+  </si>
+  <si>
+    <t>Patterson Lakes Primary School|45073|VIC|3197</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45073/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043651-129</t>
+  </si>
+  <si>
+    <t>Cranbourne West Primary School|45072|VIC|3977</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45072/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043653-130</t>
+  </si>
+  <si>
+    <t>Bethal Primary School|45070|VIC|3048</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45070/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043656-131</t>
+  </si>
+  <si>
+    <t>Mandama Primary School|45069|VIC|3216</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45069/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043658-132</t>
+  </si>
+  <si>
+    <t>Apollo Parkways Primary School|45068|VIC|3088</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45068/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043660-133</t>
+  </si>
+  <si>
+    <t>Kunyung Primary School|45067|VIC|3930</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45067/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043663-134</t>
+  </si>
+  <si>
+    <t>Kismet Park Primary School|45066|VIC|3429</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45066/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043665-135</t>
+  </si>
+  <si>
+    <t>Albanvale Primary School|45065|VIC|3021</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45065/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043668-136</t>
+  </si>
+  <si>
+    <t>Jells Park Primary School|45064|VIC|3150</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45064/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043670-137</t>
+  </si>
+  <si>
+    <t>The Patch Primary School|45062|VIC|3792</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45062/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043673-138</t>
+  </si>
+  <si>
+    <t>Altona Meadows Primary School|45061|VIC|3028</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45061/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043675-139</t>
+  </si>
+  <si>
+    <t>Mount Martha Primary School|45060|VIC|3934</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45060/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043678-140</t>
+  </si>
+  <si>
+    <t>Serpell Primary School|45059|VIC|3106</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45059/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043681-141</t>
+  </si>
+  <si>
+    <t>Mill Park Primary School|45054|VIC|3082</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45054/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043683-142</t>
+  </si>
+  <si>
+    <t>Weeden Heights Primary School|45053|VIC|3133</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45053/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043686-143</t>
+  </si>
+  <si>
+    <t>Iramoo Primary School|45051|VIC|3024</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45051/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043688-144</t>
+  </si>
+  <si>
+    <t>Melrose Primary School|45043|VIC|3690</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45043/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043690-145</t>
+  </si>
+  <si>
+    <t>Mount Eliza North Primary School|45042|VIC|3930</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45042/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043693-146</t>
+  </si>
+  <si>
+    <t>Movelle Primary School|45041|VIC|3021</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45041/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043695-147</t>
+  </si>
+  <si>
+    <t>James Cook Primary School|45040|VIC|3802</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45040/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043698-148</t>
+  </si>
+  <si>
+    <t>Kingsley Park Primary School|45039|VIC|3199</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45039/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043700-149</t>
+  </si>
+  <si>
+    <t>Thomastown Meadows Primary School|45038|VIC|3074</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45038/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043703-150</t>
+  </si>
+  <si>
+    <t>Eastbourne Primary School|45037|VIC|3939</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45037/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043705-151</t>
+  </si>
+  <si>
+    <t>Dorset Primary School|45036|VIC|3136</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45036/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043708-152</t>
+  </si>
+  <si>
+    <t>Regency Park Primary School|45035|VIC|3152</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45035/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043710-153</t>
+  </si>
+  <si>
+    <t>River Gum Primary School|45034|VIC|3976</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45034/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043712-154</t>
+  </si>
+  <si>
+    <t>Templestowe Park Primary School|45033|VIC|3106</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45033/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043715-155</t>
+  </si>
+  <si>
+    <t>Coldstream Primary School|45031|VIC|3770</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45031/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043717-156</t>
+  </si>
+  <si>
+    <t>Whittington Primary School|45030|VIC|3219</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45030/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043720-157</t>
+  </si>
+  <si>
+    <t>Kalinda Primary School|45029|VIC|3134</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45029/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043722-158</t>
+  </si>
+  <si>
+    <t>Silverton Primary School|45028|VIC|3174</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45028/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043725-159</t>
+  </si>
+  <si>
+    <t>St Albans Meadows Primary School|45027|VIC|3021</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45027/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043727-160</t>
+  </si>
+  <si>
+    <t>Churchill North Primary School|45026|VIC|3842</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45026/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043729-161</t>
+  </si>
+  <si>
+    <t>Livingstone Primary School|45024|VIC|3133</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45024/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043732-162</t>
+  </si>
+  <si>
+    <t>Camelot Rise Primary School|45023|VIC|3150</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45023/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043735-163</t>
+  </si>
+  <si>
+    <t>Kingswood Primary School|45021|VIC|3172</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45021/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043738-164</t>
+  </si>
+  <si>
+    <t>Waverley Meadows Primary School|45020|VIC|3150</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45020/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043740-165</t>
+  </si>
+  <si>
+    <t>Andersons Creek Primary School|45019|VIC|3113</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45019/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043743-166</t>
+  </si>
+  <si>
+    <t>Kingston Heath Primary School|45018|VIC|3192</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45018/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043745-167</t>
+  </si>
+  <si>
+    <t>Broadmeadows Valley Primary School|45016|VIC|3047</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45016/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043748-168</t>
+  </si>
+  <si>
+    <t>Wheelers Hill Primary School|45014|VIC|3150</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45014/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043750-169</t>
+  </si>
+  <si>
+    <t>Gladstone Views Primary School|45013|VIC|3043</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45013/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043753-170</t>
+  </si>
+  <si>
+    <t>Manorvale Primary School|45012|VIC|3030</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45012/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043755-171</t>
+  </si>
+  <si>
+    <t>Coburn Primary School|45011|VIC|3338</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45011/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043758-172</t>
+  </si>
+  <si>
+    <t>Mooroopna Park Primary School|45010|VIC|3629</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45010/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043760-173</t>
+  </si>
+  <si>
+    <t>Rosewood Downs Primary School|45009|VIC|3175</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45009/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043763-174</t>
+  </si>
+  <si>
+    <t>Deer Park North Primary School|45008|VIC|3023</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45008/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043765-175</t>
+  </si>
+  <si>
+    <t>Kent Park Primary School|45007|VIC|3156</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45007/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043768-176</t>
+  </si>
+  <si>
+    <t>Grovedale West Primary School|45004|VIC|3216</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45004/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043770-177</t>
+  </si>
+  <si>
+    <t>Tinternvale Primary School|45003|VIC|3135</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45003/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043773-178</t>
+  </si>
+  <si>
+    <t>Fountain Gate Primary School|45002|VIC|3805</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45002/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043775-179</t>
+  </si>
+  <si>
+    <t>Debney Meadows Primary School|45001|VIC|3031</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/45001/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043779-180</t>
+  </si>
+  <si>
+    <t>Gladesville Primary School|44999|VIC|3137</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44999/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043781-181</t>
+  </si>
+  <si>
+    <t>Ardeer South Primary School|44998|VIC|3020</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44998/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043784-182</t>
+  </si>
+  <si>
+    <t>Mooroolbark East Primary School|44997|VIC|3138</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44997/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043786-183</t>
+  </si>
+  <si>
+    <t>Victoria Road Primary School|44996|VIC|3140</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44996/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043789-184</t>
+  </si>
+  <si>
+    <t>Wallarano Primary School|44995|VIC|3174</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44995/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043791-185</t>
+  </si>
+  <si>
+    <t>Karingal Heights Primary School|44994|VIC|3199</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44994/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043794-186</t>
+  </si>
+  <si>
+    <t>Glengala Primary School|44993|VIC|3020</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44993/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043796-187</t>
+  </si>
+  <si>
+    <t>Woodville Primary School|44992|VIC|3029</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44992/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043800-188</t>
+  </si>
+  <si>
+    <t>Birmingham Primary School|44991|VIC|3796</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44991/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043803-189</t>
+  </si>
+  <si>
+    <t>Stevensville Primary School|44990|VIC|3021</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44990/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043806-190</t>
+  </si>
+  <si>
+    <t>Marlborough Primary School|44989|VIC|3135</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44989/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043808-191</t>
+  </si>
+  <si>
+    <t>Richmond West Primary School|44988|VIC|3121</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44988/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043811-192</t>
+  </si>
+  <si>
+    <t>Aldercourt Primary School|44987|VIC|3200</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44987/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043814-193</t>
+  </si>
+  <si>
+    <t>Wodonga South Primary School|44986|VIC|3690</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44986/naplan/results/2024#results</t>
+  </si>
+  <si>
+    <t>1740043817-194</t>
+  </si>
+  <si>
+    <t>Mornington Park Primary School|44985|VIC|3931</t>
+  </si>
+  <si>
+    <t>https://www.myschool.edu.au/school/44985/naplan/results/2024#results</t>
   </si>
 </sst>
 </file>
@@ -2848,8 +4597,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3185,15 +4935,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC269"/>
+  <dimension ref="A1:AC463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="I267" sqref="I267"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="C463" sqref="C463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3282,7 +5032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -3371,7 +5121,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -3460,7 +5210,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>61</v>
       </c>
@@ -3549,7 +5299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>75</v>
       </c>
@@ -3638,7 +5388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +5477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,7 +5566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -3905,7 +5655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -3994,7 +5744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -4083,7 +5833,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>93</v>
       </c>
@@ -4172,7 +5922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
@@ -4261,7 +6011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -4350,7 +6100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -4439,7 +6189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -4528,7 +6278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>108</v>
       </c>
@@ -4617,7 +6367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>111</v>
       </c>
@@ -4706,7 +6456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
@@ -4795,7 +6545,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>117</v>
       </c>
@@ -4884,7 +6634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>120</v>
       </c>
@@ -4973,7 +6723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>123</v>
       </c>
@@ -5062,7 +6812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>126</v>
       </c>
@@ -5151,7 +6901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>129</v>
       </c>
@@ -5240,7 +6990,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>132</v>
       </c>
@@ -5329,7 +7079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>135</v>
       </c>
@@ -5418,7 +7168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>138</v>
       </c>
@@ -5507,7 +7257,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -5596,7 +7346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>144</v>
       </c>
@@ -5685,7 +7435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>147</v>
       </c>
@@ -5774,7 +7524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>150</v>
       </c>
@@ -5863,7 +7613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>153</v>
       </c>
@@ -5952,7 +7702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>156</v>
       </c>
@@ -6041,7 +7791,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
@@ -6130,7 +7880,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>162</v>
       </c>
@@ -6219,7 +7969,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>165</v>
       </c>
@@ -6308,7 +8058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>168</v>
       </c>
@@ -6397,7 +8147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>171</v>
       </c>
@@ -6486,7 +8236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>174</v>
       </c>
@@ -6575,7 +8325,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>177</v>
       </c>
@@ -6664,7 +8414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>180</v>
       </c>
@@ -6753,7 +8503,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>183</v>
       </c>
@@ -6842,7 +8592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>186</v>
       </c>
@@ -6931,7 +8681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>189</v>
       </c>
@@ -7020,7 +8770,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>192</v>
       </c>
@@ -7109,7 +8859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>195</v>
       </c>
@@ -7198,7 +8948,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>198</v>
       </c>
@@ -7287,7 +9037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>201</v>
       </c>
@@ -7376,7 +9126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>204</v>
       </c>
@@ -7465,7 +9215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>207</v>
       </c>
@@ -7554,7 +9304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>210</v>
       </c>
@@ -7643,7 +9393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>213</v>
       </c>
@@ -7732,7 +9482,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>216</v>
       </c>
@@ -7821,7 +9571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>219</v>
       </c>
@@ -7910,7 +9660,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>222</v>
       </c>
@@ -7999,7 +9749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>225</v>
       </c>
@@ -8088,7 +9838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>228</v>
       </c>
@@ -8177,7 +9927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>231</v>
       </c>
@@ -8266,7 +10016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>234</v>
       </c>
@@ -8355,7 +10105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>237</v>
       </c>
@@ -8444,7 +10194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>240</v>
       </c>
@@ -8533,7 +10283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>243</v>
       </c>
@@ -8622,7 +10372,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>246</v>
       </c>
@@ -8711,7 +10461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>249</v>
       </c>
@@ -8800,7 +10550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>252</v>
       </c>
@@ -8889,7 +10639,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>255</v>
       </c>
@@ -8978,7 +10728,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>258</v>
       </c>
@@ -9067,7 +10817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>261</v>
       </c>
@@ -9156,7 +10906,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>264</v>
       </c>
@@ -9245,7 +10995,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>267</v>
       </c>
@@ -9334,7 +11084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>270</v>
       </c>
@@ -9423,7 +11173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>273</v>
       </c>
@@ -9512,7 +11262,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
@@ -9601,7 +11351,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>279</v>
       </c>
@@ -9690,7 +11440,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>282</v>
       </c>
@@ -9779,7 +11529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>285</v>
       </c>
@@ -9868,7 +11618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>288</v>
       </c>
@@ -9957,7 +11707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>291</v>
       </c>
@@ -10046,7 +11796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>294</v>
       </c>
@@ -10135,7 +11885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>297</v>
       </c>
@@ -10224,7 +11974,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>300</v>
       </c>
@@ -10313,7 +12063,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>303</v>
       </c>
@@ -10402,7 +12152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>306</v>
       </c>
@@ -10491,7 +12241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>309</v>
       </c>
@@ -10580,7 +12330,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>312</v>
       </c>
@@ -10669,7 +12419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>315</v>
       </c>
@@ -10758,7 +12508,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>318</v>
       </c>
@@ -10847,7 +12597,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>321</v>
       </c>
@@ -10936,7 +12686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>324</v>
       </c>
@@ -11025,7 +12775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>327</v>
       </c>
@@ -11114,7 +12864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>330</v>
       </c>
@@ -11203,7 +12953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>333</v>
       </c>
@@ -11292,7 +13042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>336</v>
       </c>
@@ -11381,7 +13131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>339</v>
       </c>
@@ -11470,7 +13220,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>342</v>
       </c>
@@ -11559,7 +13309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>345</v>
       </c>
@@ -11648,7 +13398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>348</v>
       </c>
@@ -11737,7 +13487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>351</v>
       </c>
@@ -11826,7 +13576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>354</v>
       </c>
@@ -11915,7 +13665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>357</v>
       </c>
@@ -12004,7 +13754,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>360</v>
       </c>
@@ -12093,7 +13843,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>363</v>
       </c>
@@ -12182,7 +13932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>366</v>
       </c>
@@ -12271,7 +14021,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>369</v>
       </c>
@@ -12360,7 +14110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>372</v>
       </c>
@@ -12449,7 +14199,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>375</v>
       </c>
@@ -12538,7 +14288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>378</v>
       </c>
@@ -12627,7 +14377,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>381</v>
       </c>
@@ -12716,7 +14466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>384</v>
       </c>
@@ -12805,7 +14555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>387</v>
       </c>
@@ -12894,7 +14644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>390</v>
       </c>
@@ -12983,7 +14733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>393</v>
       </c>
@@ -13072,7 +14822,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>396</v>
       </c>
@@ -13161,7 +14911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>399</v>
       </c>
@@ -13250,7 +15000,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>402</v>
       </c>
@@ -13339,7 +15089,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>405</v>
       </c>
@@ -13428,7 +15178,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>408</v>
       </c>
@@ -13517,7 +15267,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>411</v>
       </c>
@@ -13606,7 +15356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>414</v>
       </c>
@@ -13695,7 +15445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>417</v>
       </c>
@@ -13784,7 +15534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>420</v>
       </c>
@@ -13873,7 +15623,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>423</v>
       </c>
@@ -13962,7 +15712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>426</v>
       </c>
@@ -14051,7 +15801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>429</v>
       </c>
@@ -14140,7 +15890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>432</v>
       </c>
@@ -14229,7 +15979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>435</v>
       </c>
@@ -14318,7 +16068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>438</v>
       </c>
@@ -14407,7 +16157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>441</v>
       </c>
@@ -14496,7 +16246,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>444</v>
       </c>
@@ -14585,7 +16335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>447</v>
       </c>
@@ -14674,7 +16424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>450</v>
       </c>
@@ -14763,7 +16513,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>453</v>
       </c>
@@ -14852,7 +16602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>456</v>
       </c>
@@ -14941,7 +16691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>459</v>
       </c>
@@ -15030,7 +16780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>462</v>
       </c>
@@ -15119,7 +16869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>465</v>
       </c>
@@ -15208,7 +16958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>468</v>
       </c>
@@ -15297,7 +17047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>471</v>
       </c>
@@ -15386,7 +17136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>474</v>
       </c>
@@ -15475,7 +17225,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>477</v>
       </c>
@@ -15564,7 +17314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>480</v>
       </c>
@@ -15653,7 +17403,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>483</v>
       </c>
@@ -15742,7 +17492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>486</v>
       </c>
@@ -15831,7 +17581,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>489</v>
       </c>
@@ -15920,7 +17670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>492</v>
       </c>
@@ -16009,7 +17759,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>495</v>
       </c>
@@ -16098,7 +17848,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>498</v>
       </c>
@@ -16187,7 +17937,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>501</v>
       </c>
@@ -16276,7 +18026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>504</v>
       </c>
@@ -16365,7 +18115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>507</v>
       </c>
@@ -16454,7 +18204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>510</v>
       </c>
@@ -16543,7 +18293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>513</v>
       </c>
@@ -16632,7 +18382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>516</v>
       </c>
@@ -16721,7 +18471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>519</v>
       </c>
@@ -16810,7 +18560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>522</v>
       </c>
@@ -16899,7 +18649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>525</v>
       </c>
@@ -16988,7 +18738,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>528</v>
       </c>
@@ -17077,7 +18827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>531</v>
       </c>
@@ -17166,7 +18916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>534</v>
       </c>
@@ -17255,7 +19005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>537</v>
       </c>
@@ -17344,7 +19094,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>540</v>
       </c>
@@ -17433,7 +19183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>543</v>
       </c>
@@ -17522,7 +19272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>546</v>
       </c>
@@ -17611,7 +19361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>549</v>
       </c>
@@ -17700,7 +19450,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>552</v>
       </c>
@@ -17789,7 +19539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>555</v>
       </c>
@@ -17878,7 +19628,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>558</v>
       </c>
@@ -17967,7 +19717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>561</v>
       </c>
@@ -18056,7 +19806,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>564</v>
       </c>
@@ -18145,7 +19895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>567</v>
       </c>
@@ -18234,7 +19984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>570</v>
       </c>
@@ -18323,7 +20073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>573</v>
       </c>
@@ -18412,7 +20162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>576</v>
       </c>
@@ -18501,7 +20251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>579</v>
       </c>
@@ -18590,7 +20340,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="174" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>582</v>
       </c>
@@ -18679,7 +20429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>585</v>
       </c>
@@ -18768,7 +20518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>588</v>
       </c>
@@ -18857,7 +20607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>591</v>
       </c>
@@ -18946,7 +20696,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>594</v>
       </c>
@@ -19035,7 +20785,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>597</v>
       </c>
@@ -19124,7 +20874,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>600</v>
       </c>
@@ -19213,7 +20963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>603</v>
       </c>
@@ -19302,7 +21052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>606</v>
       </c>
@@ -19391,7 +21141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>609</v>
       </c>
@@ -19480,7 +21230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>612</v>
       </c>
@@ -19569,7 +21319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>615</v>
       </c>
@@ -19658,7 +21408,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>618</v>
       </c>
@@ -19747,7 +21497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>621</v>
       </c>
@@ -19836,7 +21586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>624</v>
       </c>
@@ -19925,7 +21675,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>627</v>
       </c>
@@ -20014,7 +21764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>630</v>
       </c>
@@ -20103,7 +21853,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>633</v>
       </c>
@@ -20192,7 +21942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>636</v>
       </c>
@@ -20281,7 +22031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>639</v>
       </c>
@@ -20370,7 +22120,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>642</v>
       </c>
@@ -20459,7 +22209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>645</v>
       </c>
@@ -20548,7 +22298,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>648</v>
       </c>
@@ -20637,7 +22387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>651</v>
       </c>
@@ -20726,7 +22476,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>654</v>
       </c>
@@ -20815,7 +22565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="199" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>657</v>
       </c>
@@ -20904,7 +22654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="200" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>660</v>
       </c>
@@ -20993,7 +22743,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>663</v>
       </c>
@@ -21082,7 +22832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>666</v>
       </c>
@@ -21171,7 +22921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>669</v>
       </c>
@@ -21260,7 +23010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>672</v>
       </c>
@@ -21349,7 +23099,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>675</v>
       </c>
@@ -21438,7 +23188,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>678</v>
       </c>
@@ -21527,7 +23277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>681</v>
       </c>
@@ -21616,7 +23366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="208" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>684</v>
       </c>
@@ -21705,7 +23455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="209" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>687</v>
       </c>
@@ -21794,7 +23544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>690</v>
       </c>
@@ -21883,7 +23633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="211" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>693</v>
       </c>
@@ -21972,7 +23722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="212" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>696</v>
       </c>
@@ -22061,7 +23811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="213" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>699</v>
       </c>
@@ -22150,7 +23900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>702</v>
       </c>
@@ -22239,7 +23989,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>705</v>
       </c>
@@ -22328,7 +24078,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>708</v>
       </c>
@@ -22417,7 +24167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>711</v>
       </c>
@@ -22506,7 +24256,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>714</v>
       </c>
@@ -22595,7 +24345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>717</v>
       </c>
@@ -22684,7 +24434,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>720</v>
       </c>
@@ -22773,7 +24523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>723</v>
       </c>
@@ -22862,7 +24612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>726</v>
       </c>
@@ -22951,7 +24701,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>729</v>
       </c>
@@ -23040,7 +24790,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>732</v>
       </c>
@@ -23129,7 +24879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>735</v>
       </c>
@@ -23218,7 +24968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>738</v>
       </c>
@@ -23307,7 +25057,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>741</v>
       </c>
@@ -23396,7 +25146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>744</v>
       </c>
@@ -23485,7 +25235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>747</v>
       </c>
@@ -23574,7 +25324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>750</v>
       </c>
@@ -23663,7 +25413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>753</v>
       </c>
@@ -23752,7 +25502,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>756</v>
       </c>
@@ -23841,7 +25591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>759</v>
       </c>
@@ -23930,7 +25680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>762</v>
       </c>
@@ -24019,7 +25769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>765</v>
       </c>
@@ -24108,7 +25858,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>768</v>
       </c>
@@ -24197,7 +25947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>771</v>
       </c>
@@ -24286,7 +26036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>774</v>
       </c>
@@ -24375,7 +26125,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>777</v>
       </c>
@@ -24464,7 +26214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>780</v>
       </c>
@@ -24553,7 +26303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="241" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>783</v>
       </c>
@@ -24642,7 +26392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>786</v>
       </c>
@@ -24731,7 +26481,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>789</v>
       </c>
@@ -24820,7 +26570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>792</v>
       </c>
@@ -24909,7 +26659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="245" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>795</v>
       </c>
@@ -24998,7 +26748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>798</v>
       </c>
@@ -25087,7 +26837,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="247" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>801</v>
       </c>
@@ -25176,7 +26926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>804</v>
       </c>
@@ -25265,7 +27015,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="249" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>807</v>
       </c>
@@ -25354,7 +27104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>810</v>
       </c>
@@ -25443,7 +27193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>813</v>
       </c>
@@ -25532,7 +27282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>816</v>
       </c>
@@ -25621,7 +27371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>819</v>
       </c>
@@ -25710,7 +27460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="254" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>822</v>
       </c>
@@ -25799,7 +27549,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>825</v>
       </c>
@@ -25888,7 +27638,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="256" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>828</v>
       </c>
@@ -25977,7 +27727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="257" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>831</v>
       </c>
@@ -26066,7 +27816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="258" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>834</v>
       </c>
@@ -26155,7 +27905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>837</v>
       </c>
@@ -26244,7 +27994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>840</v>
       </c>
@@ -26333,7 +28083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>843</v>
       </c>
@@ -26422,7 +28172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>846</v>
       </c>
@@ -26511,7 +28261,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>849</v>
       </c>
@@ -26600,7 +28350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>852</v>
       </c>
@@ -26689,7 +28439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>855</v>
       </c>
@@ -26778,7 +28528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>858</v>
       </c>
@@ -26867,7 +28617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>861</v>
       </c>
@@ -26956,7 +28706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="268" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>864</v>
       </c>
@@ -27045,7 +28795,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>867</v>
       </c>
@@ -27132,6 +28882,2722 @@
       </c>
       <c r="AC269" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A270" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A271" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A272" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A392" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="2" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="2" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>1452</v>
       </c>
     </row>
   </sheetData>
